--- a/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Rspo3-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Rspo3</t>
   </si>
   <si>
     <t>Sdc4</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H2">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.30728191244885</v>
+        <v>2.118096666666667</v>
       </c>
       <c r="N2">
-        <v>1.30728191244885</v>
+        <v>6.354290000000001</v>
       </c>
       <c r="O2">
-        <v>0.01306944100199914</v>
+        <v>0.01939632514349435</v>
       </c>
       <c r="P2">
-        <v>0.01306944100199914</v>
+        <v>0.02251552750188864</v>
       </c>
       <c r="Q2">
-        <v>5.886382212623157</v>
+        <v>0.007244596632222221</v>
       </c>
       <c r="R2">
-        <v>5.886382212623157</v>
+        <v>0.06520136969</v>
       </c>
       <c r="S2">
-        <v>0.01306944100199914</v>
+        <v>1.316573067301245E-05</v>
       </c>
       <c r="T2">
-        <v>0.01306944100199914</v>
+        <v>1.536547007849804E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H3">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>16.3633152749799</v>
+        <v>18.067884</v>
       </c>
       <c r="N3">
-        <v>16.3633152749799</v>
+        <v>54.20365200000001</v>
       </c>
       <c r="O3">
-        <v>0.1635908686159757</v>
+        <v>0.1654554101491777</v>
       </c>
       <c r="P3">
-        <v>0.1635908686159757</v>
+        <v>0.1920629712066653</v>
       </c>
       <c r="Q3">
-        <v>73.68015043806034</v>
+        <v>0.061798185908</v>
       </c>
       <c r="R3">
-        <v>73.68015043806034</v>
+        <v>0.556183673172</v>
       </c>
       <c r="S3">
-        <v>0.1635908686159757</v>
+        <v>0.000112306911350551</v>
       </c>
       <c r="T3">
-        <v>0.1635908686159757</v>
+        <v>0.0001310712279344066</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H4">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>18.7091587573805</v>
+        <v>21.713181</v>
       </c>
       <c r="N4">
-        <v>18.7091587573805</v>
+        <v>65.139543</v>
       </c>
       <c r="O4">
-        <v>0.1870432415901626</v>
+        <v>0.198836967737801</v>
       </c>
       <c r="P4">
-        <v>0.1870432415901626</v>
+        <v>0.2308127535691568</v>
       </c>
       <c r="Q4">
-        <v>84.24293052161109</v>
+        <v>0.074266316747</v>
       </c>
       <c r="R4">
-        <v>84.24293052161109</v>
+        <v>0.668396850723</v>
       </c>
       <c r="S4">
-        <v>0.1870432415901626</v>
+        <v>0.0001349654610194237</v>
       </c>
       <c r="T4">
-        <v>0.1870432415901626</v>
+        <v>0.0001575155837856845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.50276421372385</v>
+        <v>0.003420333333333333</v>
       </c>
       <c r="H5">
-        <v>4.50276421372385</v>
+        <v>0.010261</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.0006787744882400219</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.0006824388225951697</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.590063104633</v>
+        <v>21.91711333333333</v>
       </c>
       <c r="N5">
-        <v>18.590063104633</v>
+        <v>65.75134</v>
       </c>
       <c r="O5">
-        <v>0.1858525928155136</v>
+        <v>0.2007044641117176</v>
       </c>
       <c r="P5">
-        <v>0.1858525928155136</v>
+        <v>0.2329805696712033</v>
       </c>
       <c r="Q5">
-        <v>83.70667087840957</v>
+        <v>0.07496383330444444</v>
       </c>
       <c r="R5">
-        <v>83.70667087840957</v>
+        <v>0.6746744997399999</v>
       </c>
       <c r="S5">
-        <v>0.1858525928155136</v>
+        <v>0.000136233069914919</v>
       </c>
       <c r="T5">
-        <v>0.1858525928155136</v>
+        <v>0.0001589949856539679</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,681 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.003420333333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.010261</v>
+      </c>
+      <c r="I6">
+        <v>0.0006787744882400219</v>
+      </c>
+      <c r="J6">
+        <v>0.0006824388225951697</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N6">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O6">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P6">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q6">
+        <v>0.155230634637</v>
+      </c>
+      <c r="R6">
+        <v>0.931383807822</v>
+      </c>
+      <c r="S6">
+        <v>0.0002821033152821158</v>
+      </c>
+      <c r="T6">
+        <v>0.0002194915551426128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>4.954393</v>
+      </c>
+      <c r="H7">
+        <v>14.863179</v>
+      </c>
+      <c r="I7">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J7">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N7">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P7">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q7">
+        <v>10.49388329865667</v>
+      </c>
+      <c r="R7">
+        <v>94.44494968791</v>
+      </c>
+      <c r="S7">
+        <v>0.01907071549154805</v>
+      </c>
+      <c r="T7">
+        <v>0.02225706385302217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.954393</v>
+      </c>
+      <c r="H8">
+        <v>14.863179</v>
+      </c>
+      <c r="I8">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J8">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>18.067884</v>
+      </c>
+      <c r="N8">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O8">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P8">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q8">
+        <v>89.51539801441201</v>
+      </c>
+      <c r="R8">
+        <v>805.638582129708</v>
+      </c>
+      <c r="S8">
+        <v>0.162677879966901</v>
+      </c>
+      <c r="T8">
+        <v>0.1898582128972699</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.954393</v>
+      </c>
+      <c r="H9">
+        <v>14.863179</v>
+      </c>
+      <c r="I9">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J9">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>21.713181</v>
+      </c>
+      <c r="N9">
+        <v>65.139543</v>
+      </c>
+      <c r="O9">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P9">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q9">
+        <v>107.575631954133</v>
+      </c>
+      <c r="R9">
+        <v>968.180687587197</v>
+      </c>
+      <c r="S9">
+        <v>0.1954990552528229</v>
+      </c>
+      <c r="T9">
+        <v>0.2281631728970008</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.954393</v>
+      </c>
+      <c r="H10">
+        <v>14.863179</v>
+      </c>
+      <c r="I10">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J10">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N10">
+        <v>65.75134</v>
+      </c>
+      <c r="O10">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P10">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q10">
+        <v>108.5859928788733</v>
+      </c>
+      <c r="R10">
+        <v>977.2739359098599</v>
+      </c>
+      <c r="S10">
+        <v>0.1973352016241063</v>
+      </c>
+      <c r="T10">
+        <v>0.2303061038765575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>4.954393</v>
+      </c>
+      <c r="H11">
+        <v>14.863179</v>
+      </c>
+      <c r="I11">
+        <v>0.9832128174003353</v>
+      </c>
+      <c r="J11">
+        <v>0.9885206487458582</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N11">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O11">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P11">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q11">
+        <v>224.853397221843</v>
+      </c>
+      <c r="R11">
+        <v>1349.120383331058</v>
+      </c>
+      <c r="S11">
+        <v>0.4086299650649569</v>
+      </c>
+      <c r="T11">
+        <v>0.317936095222008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H12">
+        <v>0.16234</v>
+      </c>
+      <c r="I12">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J12">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>2.118096666666667</v>
+      </c>
+      <c r="N12">
+        <v>6.354290000000001</v>
+      </c>
+      <c r="O12">
+        <v>0.01939632514349435</v>
+      </c>
+      <c r="P12">
+        <v>0.02251552750188864</v>
+      </c>
+      <c r="Q12">
+        <v>0.1719259064333334</v>
+      </c>
+      <c r="R12">
+        <v>1.0315554386</v>
+      </c>
+      <c r="S12">
+        <v>0.0003124439212732933</v>
+      </c>
+      <c r="T12">
+        <v>0.0002430981787879713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.5</v>
+      </c>
+      <c r="G13">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H13">
+        <v>0.16234</v>
+      </c>
+      <c r="I13">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J13">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>18.067884</v>
+      </c>
+      <c r="N13">
+        <v>54.20365200000001</v>
+      </c>
+      <c r="O13">
+        <v>0.1654554101491777</v>
+      </c>
+      <c r="P13">
+        <v>0.1920629712066653</v>
+      </c>
+      <c r="Q13">
+        <v>1.46657014428</v>
+      </c>
+      <c r="R13">
+        <v>8.799420865680002</v>
+      </c>
+      <c r="S13">
+        <v>0.002665223270926097</v>
+      </c>
+      <c r="T13">
+        <v>0.002073687081461025</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H14">
+        <v>0.16234</v>
+      </c>
+      <c r="I14">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J14">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>21.713181</v>
+      </c>
+      <c r="N14">
+        <v>65.139543</v>
+      </c>
+      <c r="O14">
+        <v>0.198836967737801</v>
+      </c>
+      <c r="P14">
+        <v>0.2308127535691568</v>
+      </c>
+      <c r="Q14">
+        <v>1.76245890177</v>
+      </c>
+      <c r="R14">
+        <v>10.57475341062</v>
+      </c>
+      <c r="S14">
+        <v>0.003202947023958664</v>
+      </c>
+      <c r="T14">
+        <v>0.002492065088370336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="H6">
-        <v>4.50276421372385</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="N6">
-        <v>45.0560284408126</v>
-      </c>
-      <c r="O6">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="P6">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="Q6">
-        <v>202.876672475815</v>
-      </c>
-      <c r="R6">
-        <v>202.876672475815</v>
-      </c>
-      <c r="S6">
-        <v>0.4504438559763489</v>
-      </c>
-      <c r="T6">
-        <v>0.4504438559763489</v>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.16234</v>
+      </c>
+      <c r="I15">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J15">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>21.91711333333333</v>
+      </c>
+      <c r="N15">
+        <v>65.75134</v>
+      </c>
+      <c r="O15">
+        <v>0.2007044641117176</v>
+      </c>
+      <c r="P15">
+        <v>0.2329805696712033</v>
+      </c>
+      <c r="Q15">
+        <v>1.779012089266667</v>
+      </c>
+      <c r="R15">
+        <v>10.6740725356</v>
+      </c>
+      <c r="S15">
+        <v>0.003233029417696318</v>
+      </c>
+      <c r="T15">
+        <v>0.002515470808991828</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>0.08117000000000001</v>
+      </c>
+      <c r="H16">
+        <v>0.16234</v>
+      </c>
+      <c r="I16">
+        <v>0.01610840811142459</v>
+      </c>
+      <c r="J16">
+        <v>0.01079691243154662</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>45.38465100000001</v>
+      </c>
+      <c r="N16">
+        <v>90.76930200000001</v>
+      </c>
+      <c r="O16">
+        <v>0.4156068328578093</v>
+      </c>
+      <c r="P16">
+        <v>0.3216281780510861</v>
+      </c>
+      <c r="Q16">
+        <v>3.683872121670001</v>
+      </c>
+      <c r="R16">
+        <v>14.73548848668</v>
+      </c>
+      <c r="S16">
+        <v>0.00669476447757022</v>
+      </c>
+      <c r="T16">
+        <v>0.00347259127393546</v>
       </c>
     </row>
   </sheetData>
